--- a/similarities/split_global/harmonic_similarity_timestamps_311.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_311.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,426 +484,438 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:01:07.300000', '0:01:13.160000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:01:02.932448', '0:01:12.777709')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=62.932448</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:02:18.800000', '0:02:24.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:04.480000', '0:01:11.020000')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=64.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.500000', '0:00:07.720000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:11.020000', '0:00:28.300000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=11.02']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Bb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:20.240000')]</t>
+          <t>('0:00:23.428956', '0:00:30.731632')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:02.640000', '0:00:08.080000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=2.64</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D#:7', 'G#:maj', 'C#:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['B:7', 'E', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:53.540000', '0:01:03.080000')]</t>
+          <t>('0:01:27.910000', '0:01:48.850000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:30.494172', '0:00:33.431496')]</t>
+          <t>('0:00:13.384180', '0:00:18.719002')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=53.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=87.91</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=30.494172']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=13.38418</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:48.860000')]</t>
+          <t>('0:00:07.140000', '0:00:14.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=7.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:10.240000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000'), ('0:02:04.300000', '0:02:09.240000')]</t>
+          <t>('0:00:24.580000', '0:00:32.940000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:05.840000', '0:00:12.720000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:26.220000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -913,277 +925,285 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000')]</t>
+          <t>('0:00:10.260000', '0:00:24.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000')]</t>
+          <t>('0:00:44.160000', '0:00:52.300000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+          <t>('0:00:23.575000', '0:00:34.995000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=21.02']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:55.080000', '0:02:05.160000')]</t>
+          <t>('0:00:22.080000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:10.740000', '0:01:23.380000')]</t>
+          <t>('0:00:41.140000', '0:00:53.020000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=22.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=41.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:26.115071')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:01:52.140000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:01:06.930000', '0:01:40.770000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=112.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj', 'G:maj', 'C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['F#', 'B', 'E', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:28.960000', '0:00:49.060000'), ('0:00:01.920000', '0:00:08.320000'), ('0:00:56.780000', '0:01:05.580000')]</t>
+          <t>('0:00:13.822000', '0:00:24.195000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:09.100000', '0:00:13.860000'), ('0:00:35.880000', '0:00:37.420000')]</t>
+          <t>('0:00:26.162131', '0:00:48.488117')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=28.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=56.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=13.822</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=35.88']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=26.162131</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
